--- a/pred_ohlcv/54_21/2020-01-14 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>157682.0557493827</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>141732.9509493827</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>137768.0952493827</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>143765.5408493827</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>137986.9765493827</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>137939.5999493827</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>163141.1141493827</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>163129.1141493827</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>163121.1141493827</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>163104.6015493828</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>164632.2530493828</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>167999.2185493828</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>165849.4077493827</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>167398.3882493828</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>171108.0050493827</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>178781.9104493827</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>179930.9969006022</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>179888.9969006022</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>179872.9969006022</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>191514.1535006022</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>244207.7590006022</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>256658.3105006022</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>245972.3658006022</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>257181.9297006023</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>387397.2338743231</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>340348.5138743231</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>331497.5395743231</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>333564.9841047325</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>361233.6247047324</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>377827.6560047324</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>343324.8617820918</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>379119.5092046474</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>403064.4993959807</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>527212.9740303934</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>508044.8118303934</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>502189.6438303934</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>474896.8329303934</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>455208.9695303934</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>469867.0510989327</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>483385.3772146425</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>491026.9727302248</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>490986.3749648617</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>483195.1050648617</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>487029.3915648616</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>481632.3125648616</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>459430.6004648616</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>468607.6540648616</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>462915.6063648616</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>439212.6067648616</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>445329.4694512585</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>483431.5985512584</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>474937.1027512585</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>480045.2294512585</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>481010.6418007091</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>476050.9829007091</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>479103.3058007091</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>492145.4489007091</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>502979.6414007091</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>511120.9985007091</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>505867.7103007091</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>508914.1900007091</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>487386.9647007092</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>520738.8264007092</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>510454.4710007092</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>511715.4123007092</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>506683.5449007092</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>516838.4427007092</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>511389.4940007091</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>480983.8507007092</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>486758.4200007091</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>484244.1901007092</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>460131.6377007092</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>472076.8874007092</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>109432.9901845291</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>115202.4326845291</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>115022.4326845291</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>116896.4326845291</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>114853.2905845291</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>114288.5802845291</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>113132.4702845291</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>107026.8361845291</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>105529.9040845291</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>105549.9040845291</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>104045.9040845291</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>102577.8489845291</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>102003.8967845291</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>135270.3746845291</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>89810.64119822772</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>103379.4071982277</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>96985.71689822772</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>157682.0557493827</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>141732.9509493827</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>137768.0952493827</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>143765.5408493827</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>137986.9765493827</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>137939.5999493827</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>138564.5999493827</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>163141.1141493827</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>163129.1141493827</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>163121.1141493827</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>163104.6015493828</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>164693.2530493828</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>164632.2530493828</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>167999.2185493828</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>165849.4077493827</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>167398.3882493828</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>171108.0050493827</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>169128.4651493827</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>178781.9104493827</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>178717.6787493827</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>179930.9969006022</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>179888.9969006022</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>179872.9969006022</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>191052.1535006022</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>191514.1535006022</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>244207.7590006022</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>256658.3105006022</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>245972.3658006022</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>257181.9297006023</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>387397.2338743231</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>340348.5138743231</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>331497.5395743231</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>333564.9841047325</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>361233.6247047324</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>377827.6560047324</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>366683.7017030181</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>343324.8617820918</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>379119.5092046474</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>403064.4993959807</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>508044.8118303934</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>502189.6438303934</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>455208.9695303934</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>490986.3749648617</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>483195.1050648617</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>487029.3915648616</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>481632.3125648616</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>459430.6004648616</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>462915.6063648616</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>439212.6067648616</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>445329.4694512585</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>473837.9174512585</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>483431.5985512584</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>474937.1027512585</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>480045.2294512585</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>486987.9990512585</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>481010.6418007091</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>476050.9829007091</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>479103.3058007091</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>492145.4489007091</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>502979.6414007091</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>511120.9985007091</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>505867.7103007091</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>508914.1900007091</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>487386.9647007092</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>520738.8264007092</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>510454.4710007092</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>511715.4123007092</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>156340.9093845291</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>109432.9901845291</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>115202.4326845291</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>115022.4326845291</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>116896.4326845291</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>114853.2905845291</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>114288.5802845291</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>113132.4702845291</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>107026.8361845291</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>105529.9040845291</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>105549.9040845291</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>104045.9040845291</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>102577.8489845291</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>102003.8967845291</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>103753.8967845291</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>135270.3746845291</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>89810.64119822772</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>100707.2364982277</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>98366.93519822771</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>110468.8562982277</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
